--- a/Code/Results/Cases/Case_5_80/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_80/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9677167310081245</v>
+        <v>1.233604490811956</v>
       </c>
       <c r="C2">
-        <v>0.1537353748194192</v>
+        <v>0.07243487903528489</v>
       </c>
       <c r="D2">
-        <v>0.003762870122625994</v>
+        <v>0.004012937065372757</v>
       </c>
       <c r="E2">
-        <v>0.02069352079031717</v>
+        <v>0.0651270280068692</v>
       </c>
       <c r="F2">
-        <v>3.404131091889496</v>
+        <v>4.639663493202576</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>2.227327964077062</v>
+        <v>3.007647047798784</v>
       </c>
       <c r="J2">
-        <v>0.08796544600884459</v>
+        <v>0.1738394188915784</v>
       </c>
       <c r="K2">
-        <v>1.050870042555488</v>
+        <v>1.098044654369545</v>
       </c>
       <c r="L2">
-        <v>0.197145714180742</v>
+        <v>0.3540689197455009</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8553763172834863</v>
+        <v>1.216754902809356</v>
       </c>
       <c r="C3">
-        <v>0.1330858542220597</v>
+        <v>0.06715396461611078</v>
       </c>
       <c r="D3">
-        <v>0.003688102490823297</v>
+        <v>0.004145253105960034</v>
       </c>
       <c r="E3">
-        <v>0.02021867641427821</v>
+        <v>0.06537049419064811</v>
       </c>
       <c r="F3">
-        <v>3.223765592803829</v>
+        <v>4.599691938735035</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>2.124519200436154</v>
+        <v>2.983223206827091</v>
       </c>
       <c r="J3">
-        <v>0.0862397826793746</v>
+        <v>0.173739443769918</v>
       </c>
       <c r="K3">
-        <v>0.9236010769368477</v>
+        <v>1.075287720699464</v>
       </c>
       <c r="L3">
-        <v>0.1810451590048388</v>
+        <v>0.3524579666636996</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7878131361518683</v>
+        <v>1.207252263149655</v>
       </c>
       <c r="C4">
-        <v>0.1206177960493022</v>
+        <v>0.06395599346494407</v>
       </c>
       <c r="D4">
-        <v>0.003634856822173571</v>
+        <v>0.00423337219957487</v>
       </c>
       <c r="E4">
-        <v>0.01995015741295614</v>
+        <v>0.06554090196965134</v>
       </c>
       <c r="F4">
-        <v>3.116486048899731</v>
+        <v>4.576408819635773</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>2.063437373349331</v>
+        <v>2.968916534873586</v>
       </c>
       <c r="J4">
-        <v>0.08524473021559942</v>
+        <v>0.1737113378702055</v>
       </c>
       <c r="K4">
-        <v>0.8469737315467967</v>
+        <v>1.062085975564344</v>
       </c>
       <c r="L4">
-        <v>0.1714460175227543</v>
+        <v>0.3516446564154734</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7606047916326588</v>
+        <v>1.203592118987615</v>
       </c>
       <c r="C5">
-        <v>0.1155833412199456</v>
+        <v>0.06266391640198776</v>
       </c>
       <c r="D5">
-        <v>0.003611356389459086</v>
+        <v>0.004271017069480187</v>
       </c>
       <c r="E5">
-        <v>0.01984635694502135</v>
+        <v>0.06561561930578197</v>
       </c>
       <c r="F5">
-        <v>3.07357710075317</v>
+        <v>4.567237214676211</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>2.039022871176016</v>
+        <v>2.96325963005242</v>
       </c>
       <c r="J5">
-        <v>0.08485469956678671</v>
+        <v>0.1737082610827834</v>
       </c>
       <c r="K5">
-        <v>0.8160919639310862</v>
+        <v>1.056900152086484</v>
       </c>
       <c r="L5">
-        <v>0.1676014012313587</v>
+        <v>0.3513574990490724</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7561055701088435</v>
+        <v>1.202997182580049</v>
       </c>
       <c r="C6">
-        <v>0.1147499900297646</v>
+        <v>0.06245003754649758</v>
       </c>
       <c r="D6">
-        <v>0.003607346553897273</v>
+        <v>0.004277372990814765</v>
       </c>
       <c r="E6">
-        <v>0.01982945585037754</v>
+        <v>0.06562834507854376</v>
       </c>
       <c r="F6">
-        <v>3.066499157997811</v>
+        <v>4.565733381866977</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>2.0349966276939</v>
+        <v>2.962330757970662</v>
       </c>
       <c r="J6">
-        <v>0.08479084779984802</v>
+        <v>0.1737082563564059</v>
       </c>
       <c r="K6">
-        <v>0.8109838497782107</v>
+        <v>1.056050769841846</v>
       </c>
       <c r="L6">
-        <v>0.166966920093671</v>
+        <v>0.3513124926112354</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7874449221830275</v>
+        <v>1.207202041390588</v>
       </c>
       <c r="C7">
-        <v>0.1205497202665526</v>
+        <v>0.06393852312737636</v>
       </c>
       <c r="D7">
-        <v>0.003634547128056553</v>
+        <v>0.004233872854239706</v>
       </c>
       <c r="E7">
-        <v>0.01994873497085869</v>
+        <v>0.06554188825680729</v>
       </c>
       <c r="F7">
-        <v>3.115904171270074</v>
+        <v>4.576283847233796</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>2.063106227181606</v>
+        <v>2.968839543011413</v>
       </c>
       <c r="J7">
-        <v>0.08523940849255496</v>
+        <v>0.1737112624479273</v>
       </c>
       <c r="K7">
-        <v>0.8465559011314667</v>
+        <v>1.062015252128248</v>
       </c>
       <c r="L7">
-        <v>0.1713939022734081</v>
+        <v>0.3516406043675744</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.928668572684785</v>
+        <v>1.227619916911664</v>
       </c>
       <c r="C8">
-        <v>0.1465675123223917</v>
+        <v>0.07060472970725584</v>
       </c>
       <c r="D8">
-        <v>0.00373863898541904</v>
+        <v>0.004057136277395124</v>
       </c>
       <c r="E8">
-        <v>0.02052490685803221</v>
+        <v>0.06520664220990113</v>
       </c>
       <c r="F8">
-        <v>3.341182408409196</v>
+        <v>4.625619690632021</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>2.191432409557038</v>
+        <v>2.999082410949214</v>
       </c>
       <c r="J8">
-        <v>0.08735657358373317</v>
+        <v>0.1737980450870289</v>
       </c>
       <c r="K8">
-        <v>1.006649993322327</v>
+        <v>1.090038064358765</v>
       </c>
       <c r="L8">
-        <v>0.1915316394719184</v>
+        <v>0.3534770064474202</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.218380303118806</v>
+        <v>1.274341815827171</v>
       </c>
       <c r="C9">
-        <v>0.1995887551271807</v>
+        <v>0.08403464828941765</v>
       </c>
       <c r="D9">
-        <v>0.003882628684539924</v>
+        <v>0.003764836723097353</v>
       </c>
       <c r="E9">
-        <v>0.02184597025540036</v>
+        <v>0.06471458456161727</v>
       </c>
       <c r="F9">
-        <v>3.81354766675102</v>
+        <v>4.732381880448486</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>2.461102286515654</v>
+        <v>3.063876326221433</v>
       </c>
       <c r="J9">
-        <v>0.09205748062456465</v>
+        <v>0.1742320158728248</v>
       </c>
       <c r="K9">
-        <v>1.334440401639938</v>
+        <v>1.151110071799508</v>
       </c>
       <c r="L9">
-        <v>0.2335411487835586</v>
+        <v>0.3584712324411328</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.441395838034481</v>
+        <v>1.312739641244917</v>
       </c>
       <c r="C10">
-        <v>0.2402662207639423</v>
+        <v>0.09412641534504473</v>
       </c>
       <c r="D10">
-        <v>0.003949150920019129</v>
+        <v>0.003582800054517943</v>
       </c>
       <c r="E10">
-        <v>0.02294601051090872</v>
+        <v>0.06445307617095075</v>
       </c>
       <c r="F10">
-        <v>4.183971059764758</v>
+        <v>4.816965553773628</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>2.672976339249161</v>
+        <v>3.114854153546688</v>
       </c>
       <c r="J10">
-        <v>0.09590279206396701</v>
+        <v>0.1747114558830383</v>
       </c>
       <c r="K10">
-        <v>1.586492856426105</v>
+        <v>1.199719168271145</v>
       </c>
       <c r="L10">
-        <v>0.2663163114441005</v>
+        <v>0.3629880283305056</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.545650974974137</v>
+        <v>1.331091868551681</v>
       </c>
       <c r="C11">
-        <v>0.2592716100279802</v>
+        <v>0.09876778988007118</v>
       </c>
       <c r="D11">
-        <v>0.003970331784544978</v>
+        <v>0.003507012920325625</v>
       </c>
       <c r="E11">
-        <v>0.02347776335897223</v>
+        <v>0.06435565919585784</v>
       </c>
       <c r="F11">
-        <v>4.358734276341664</v>
+        <v>4.856788753741057</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>2.773032733443031</v>
+        <v>3.138784384221495</v>
       </c>
       <c r="J11">
-        <v>0.0977511965188711</v>
+        <v>0.1749644055662323</v>
       </c>
       <c r="K11">
-        <v>1.7042898224135</v>
+        <v>1.222647243526183</v>
       </c>
       <c r="L11">
-        <v>0.2817346955496163</v>
+        <v>0.3652265989876042</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.585587909619989</v>
+        <v>1.338168507203477</v>
       </c>
       <c r="C12">
-        <v>0.266552283702282</v>
+        <v>0.1005327346339016</v>
       </c>
       <c r="D12">
-        <v>0.003977001634948074</v>
+        <v>0.003479317904596879</v>
       </c>
       <c r="E12">
-        <v>0.02368392661069585</v>
+        <v>0.06432185417751235</v>
       </c>
       <c r="F12">
-        <v>4.425920689368439</v>
+        <v>4.872062799142839</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>2.811513135190438</v>
+        <v>3.147952963583094</v>
       </c>
       <c r="J12">
-        <v>0.09846669614109516</v>
+        <v>0.1750651971897668</v>
       </c>
       <c r="K12">
-        <v>1.749412110600844</v>
+        <v>1.231446856668356</v>
       </c>
       <c r="L12">
-        <v>0.2876550369518469</v>
+        <v>0.3661006867057637</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.576965486294995</v>
+        <v>1.336638778933178</v>
       </c>
       <c r="C13">
-        <v>0.2649803355977269</v>
+        <v>0.1001522936565777</v>
       </c>
       <c r="D13">
-        <v>0.003975625954027784</v>
+        <v>0.003485237965063614</v>
       </c>
       <c r="E13">
-        <v>0.02363930719228158</v>
+        <v>0.06432899771318823</v>
       </c>
       <c r="F13">
-        <v>4.411404253831051</v>
+        <v>4.868764632249736</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>2.803198326220141</v>
+        <v>3.145973594973043</v>
       </c>
       <c r="J13">
-        <v>0.09831188699426718</v>
+        <v>0.1750432674079221</v>
       </c>
       <c r="K13">
-        <v>1.739670214878743</v>
+        <v>1.229546488205045</v>
       </c>
       <c r="L13">
-        <v>0.2863762043322566</v>
+        <v>0.3659112633563524</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.548927103231563</v>
+        <v>1.331671522712639</v>
       </c>
       <c r="C14">
-        <v>0.2598688454369551</v>
+        <v>0.0989128450200667</v>
       </c>
       <c r="D14">
-        <v>0.003970907846494232</v>
+        <v>0.0035047143486171</v>
       </c>
       <c r="E14">
-        <v>0.02349462654774648</v>
+        <v>0.06435281629134693</v>
       </c>
       <c r="F14">
-        <v>4.364240896531186</v>
+        <v>4.85804147125387</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>2.776186306914155</v>
+        <v>3.139536548283843</v>
       </c>
       <c r="J14">
-        <v>0.09780974161978406</v>
+        <v>0.1749725974802701</v>
       </c>
       <c r="K14">
-        <v>1.707991345080728</v>
+        <v>1.223368843281719</v>
       </c>
       <c r="L14">
-        <v>0.2822200752668351</v>
+        <v>0.3652979820990652</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.531814116272926</v>
+        <v>1.328645474703109</v>
       </c>
       <c r="C15">
-        <v>0.2567491853918966</v>
+        <v>0.09815460753551974</v>
       </c>
       <c r="D15">
-        <v>0.003967840618643859</v>
+        <v>0.003516774763741015</v>
       </c>
       <c r="E15">
-        <v>0.0234066397915349</v>
+        <v>0.06436780717882584</v>
       </c>
       <c r="F15">
-        <v>4.335486556909814</v>
+        <v>4.851498483060141</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>2.759719636409983</v>
+        <v>3.135607577983635</v>
       </c>
       <c r="J15">
-        <v>0.09750422854301277</v>
+        <v>0.1749299617313973</v>
       </c>
       <c r="K15">
-        <v>1.688656224564653</v>
+        <v>1.21960012597205</v>
       </c>
       <c r="L15">
-        <v>0.2796852398628573</v>
+        <v>0.3649257648963982</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.434643481544555</v>
+        <v>1.311558068985732</v>
       </c>
       <c r="C16">
-        <v>0.2390352270095093</v>
+        <v>0.09382411551999326</v>
       </c>
       <c r="D16">
-        <v>0.003947580104926018</v>
+        <v>0.003587893723773661</v>
       </c>
       <c r="E16">
-        <v>0.02291191425672778</v>
+        <v>0.06445987498169004</v>
       </c>
       <c r="F16">
-        <v>4.172684722540055</v>
+        <v>4.814390122761097</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>2.666516580530356</v>
+        <v>3.11330517503913</v>
       </c>
       <c r="J16">
-        <v>0.09578409714259806</v>
+        <v>0.1746956257544419</v>
       </c>
       <c r="K16">
-        <v>1.578862994688961</v>
+        <v>1.198237173153245</v>
       </c>
       <c r="L16">
-        <v>0.2653196347990843</v>
+        <v>0.3628454279469224</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.375787729876038</v>
+        <v>1.301301993251485</v>
       </c>
       <c r="C17">
-        <v>0.2283045417889298</v>
+        <v>0.09118051272575656</v>
       </c>
       <c r="D17">
-        <v>0.003932792896175652</v>
+        <v>0.003633317271008796</v>
       </c>
       <c r="E17">
-        <v>0.02261664258692697</v>
+        <v>0.06452186408597171</v>
       </c>
       <c r="F17">
-        <v>4.074486648330748</v>
+        <v>4.79197025609588</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>2.610323288256652</v>
+        <v>3.099813149183973</v>
       </c>
       <c r="J17">
-        <v>0.09475512654032059</v>
+        <v>0.1745607896129435</v>
       </c>
       <c r="K17">
-        <v>1.512355362608645</v>
+        <v>1.18534055446483</v>
       </c>
       <c r="L17">
-        <v>0.2566429431747963</v>
+        <v>0.3616162637167406</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.342195825086179</v>
+        <v>1.295486268410741</v>
       </c>
       <c r="C18">
-        <v>0.2221789211502028</v>
+        <v>0.08966473799732455</v>
       </c>
       <c r="D18">
-        <v>0.003923435658959029</v>
+        <v>0.003660105008146175</v>
       </c>
       <c r="E18">
-        <v>0.02244974068322314</v>
+        <v>0.06455954724298074</v>
       </c>
       <c r="F18">
-        <v>4.01858746718554</v>
+        <v>4.779201580168262</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>2.57834406673183</v>
+        <v>3.092122543051715</v>
       </c>
       <c r="J18">
-        <v>0.09417253812009818</v>
+        <v>0.1744865160507842</v>
       </c>
       <c r="K18">
-        <v>1.474392994839405</v>
+        <v>1.177999525345001</v>
       </c>
       <c r="L18">
-        <v>0.2516996678263155</v>
+        <v>0.3609265893473861</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.330865330885274</v>
+        <v>1.293531476572639</v>
       </c>
       <c r="C19">
-        <v>0.2201125217982707</v>
+        <v>0.08915233697466363</v>
       </c>
       <c r="D19">
-        <v>0.003920122509124546</v>
+        <v>0.003669288635847145</v>
       </c>
       <c r="E19">
-        <v>0.02239372541948192</v>
+        <v>0.06457265494765174</v>
       </c>
       <c r="F19">
-        <v>3.999757772233778</v>
+        <v>4.774900065283759</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>2.567573319249476</v>
+        <v>3.089530589768017</v>
       </c>
       <c r="J19">
-        <v>0.09397683481317998</v>
+        <v>0.1744619319426839</v>
       </c>
       <c r="K19">
-        <v>1.461587736334963</v>
+        <v>1.17552716441287</v>
       </c>
       <c r="L19">
-        <v>0.2500338413467915</v>
+        <v>0.3606960516987812</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.38202570106057</v>
+        <v>1.302385150372317</v>
       </c>
       <c r="C20">
-        <v>0.2294419600540891</v>
+        <v>0.09146143595664569</v>
       </c>
       <c r="D20">
-        <v>0.003934455530348213</v>
+        <v>0.003628413456659541</v>
       </c>
       <c r="E20">
-        <v>0.02264776942636004</v>
+        <v>0.06451505537849833</v>
       </c>
       <c r="F20">
-        <v>4.084879045344877</v>
+        <v>4.794343780042908</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>2.616269362504283</v>
+        <v>3.101242187791655</v>
       </c>
       <c r="J20">
-        <v>0.09486369611362377</v>
+        <v>0.1745748036652373</v>
       </c>
       <c r="K20">
-        <v>1.519404647065613</v>
+        <v>1.186705476903285</v>
       </c>
       <c r="L20">
-        <v>0.2575616342246008</v>
+        <v>0.3617453193548243</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.55714976887262</v>
+        <v>1.333127079716604</v>
       </c>
       <c r="C21">
-        <v>0.261367841521519</v>
+        <v>0.09927670079184736</v>
       </c>
       <c r="D21">
-        <v>0.003972330687601833</v>
+        <v>0.003498966461842112</v>
       </c>
       <c r="E21">
-        <v>0.02353699000306264</v>
+        <v>0.06434573658655118</v>
       </c>
       <c r="F21">
-        <v>4.378065663505794</v>
+        <v>4.861185859273007</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>2.784103812689779</v>
+        <v>3.141424366282365</v>
       </c>
       <c r="J21">
-        <v>0.09795680095739101</v>
+        <v>0.1749932191649464</v>
       </c>
       <c r="K21">
-        <v>1.717281672243416</v>
+        <v>1.225180185422062</v>
       </c>
       <c r="L21">
-        <v>0.2834385401572348</v>
+        <v>0.365477401847258</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.674301332957953</v>
+        <v>1.353959159478222</v>
       </c>
       <c r="C22">
-        <v>0.2827277724984469</v>
+        <v>0.1044273496265191</v>
       </c>
       <c r="D22">
-        <v>0.00398919003585263</v>
+        <v>0.003420214366437246</v>
       </c>
       <c r="E22">
-        <v>0.02414628332128643</v>
+        <v>0.06425305069642029</v>
       </c>
       <c r="F22">
-        <v>4.57561012554504</v>
+        <v>4.906001179382969</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>2.897273403490573</v>
+        <v>3.168307924928357</v>
       </c>
       <c r="J22">
-        <v>0.100069651133758</v>
+        <v>0.17529584840225</v>
       </c>
       <c r="K22">
-        <v>1.849643134382944</v>
+        <v>1.251009040047677</v>
       </c>
       <c r="L22">
-        <v>0.3008316418357992</v>
+        <v>0.3680703305260238</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.611508928232098</v>
+        <v>1.342772996903079</v>
       </c>
       <c r="C23">
-        <v>0.2712781155586583</v>
+        <v>0.1016743961668283</v>
       </c>
       <c r="D23">
-        <v>0.003980928889174784</v>
+        <v>0.003461712572167208</v>
       </c>
       <c r="E23">
-        <v>0.02381841263570372</v>
+        <v>0.06430087869505563</v>
       </c>
       <c r="F23">
-        <v>4.469595735734885</v>
+        <v>4.881978870139619</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>2.836531716807713</v>
+        <v>3.153902638996385</v>
       </c>
       <c r="J23">
-        <v>0.09893316539395869</v>
+        <v>0.1751316624355184</v>
       </c>
       <c r="K23">
-        <v>1.778698428872445</v>
+        <v>1.237161168987313</v>
       </c>
       <c r="L23">
-        <v>0.2915015306244584</v>
+        <v>0.3666723790548758</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.379204755059476</v>
+        <v>1.301895203872704</v>
       </c>
       <c r="C24">
-        <v>0.2289275983413432</v>
+        <v>0.09133441790075381</v>
       </c>
       <c r="D24">
-        <v>0.00393370651561753</v>
+        <v>0.003630628374399869</v>
       </c>
       <c r="E24">
-        <v>0.02263368811535216</v>
+        <v>0.06451812722511363</v>
       </c>
       <c r="F24">
-        <v>4.080178918228938</v>
+        <v>4.793270333592432</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>2.613580128324088</v>
+        <v>3.10059591343466</v>
       </c>
       <c r="J24">
-        <v>0.094814583933303</v>
+        <v>0.1745684578021987</v>
       </c>
       <c r="K24">
-        <v>1.516216817629299</v>
+        <v>1.186088166809981</v>
       </c>
       <c r="L24">
-        <v>0.257146154254059</v>
+        <v>0.3616869203812882</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.138405970807213</v>
+        <v>1.260987195016099</v>
       </c>
       <c r="C25">
-        <v>0.1849818989242351</v>
+        <v>0.08036252016950129</v>
       </c>
       <c r="D25">
-        <v>0.003850382999903701</v>
+        <v>0.003838139503849369</v>
       </c>
       <c r="E25">
-        <v>0.0214668581289601</v>
+        <v>0.06483007966772902</v>
       </c>
       <c r="F25">
-        <v>3.682022586440326</v>
+        <v>4.702423590695986</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>2.385949803438123</v>
+        <v>3.045757439977592</v>
       </c>
       <c r="J25">
-        <v>0.09072140960665109</v>
+        <v>0.1740863970475672</v>
       </c>
       <c r="K25">
-        <v>1.244010295307788</v>
+        <v>1.133932460600192</v>
       </c>
       <c r="L25">
-        <v>0.2218700964993161</v>
+        <v>0.3569712075155991</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_80/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_80/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.233604490811956</v>
+        <v>0.9677167310083234</v>
       </c>
       <c r="C2">
-        <v>0.07243487903528489</v>
+        <v>0.153735374819405</v>
       </c>
       <c r="D2">
-        <v>0.004012937065372757</v>
+        <v>0.003762870122493212</v>
       </c>
       <c r="E2">
-        <v>0.0651270280068692</v>
+        <v>0.02069352079031361</v>
       </c>
       <c r="F2">
-        <v>4.639663493202576</v>
+        <v>3.404131091889496</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>3.007647047798784</v>
+        <v>2.227327964077077</v>
       </c>
       <c r="J2">
-        <v>0.1738394188915784</v>
+        <v>0.08796544600893341</v>
       </c>
       <c r="K2">
-        <v>1.098044654369545</v>
+        <v>1.050870042555459</v>
       </c>
       <c r="L2">
-        <v>0.3540689197455009</v>
+        <v>0.1971457141808202</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.216754902809356</v>
+        <v>0.8553763172835716</v>
       </c>
       <c r="C3">
-        <v>0.06715396461611078</v>
+        <v>0.133085854222486</v>
       </c>
       <c r="D3">
-        <v>0.004145253105960034</v>
+        <v>0.00368810249104623</v>
       </c>
       <c r="E3">
-        <v>0.06537049419064811</v>
+        <v>0.02021867641426844</v>
       </c>
       <c r="F3">
-        <v>4.599691938735035</v>
+        <v>3.223765592803858</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>2.983223206827091</v>
+        <v>2.124519200436197</v>
       </c>
       <c r="J3">
-        <v>0.173739443769918</v>
+        <v>0.08623978267932131</v>
       </c>
       <c r="K3">
-        <v>1.075287720699464</v>
+        <v>0.9236010769368477</v>
       </c>
       <c r="L3">
-        <v>0.3524579666636996</v>
+        <v>0.1810451590049524</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.207252263149655</v>
+        <v>0.7878131361520957</v>
       </c>
       <c r="C4">
-        <v>0.06395599346494407</v>
+        <v>0.120617796049288</v>
       </c>
       <c r="D4">
-        <v>0.00423337219957487</v>
+        <v>0.003634856821938204</v>
       </c>
       <c r="E4">
-        <v>0.06554090196965134</v>
+        <v>0.01995015741297035</v>
       </c>
       <c r="F4">
-        <v>4.576408819635773</v>
+        <v>3.116486048899759</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>2.968916534873586</v>
+        <v>2.063437373349373</v>
       </c>
       <c r="J4">
-        <v>0.1737113378702055</v>
+        <v>0.0852447302157131</v>
       </c>
       <c r="K4">
-        <v>1.062085975564344</v>
+        <v>0.8469737315468251</v>
       </c>
       <c r="L4">
-        <v>0.3516446564154734</v>
+        <v>0.1714460175226264</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.203592118987615</v>
+        <v>0.7606047916326304</v>
       </c>
       <c r="C5">
-        <v>0.06266391640198776</v>
+        <v>0.1155833412199598</v>
       </c>
       <c r="D5">
-        <v>0.004271017069480187</v>
+        <v>0.003611356389456866</v>
       </c>
       <c r="E5">
-        <v>0.06561561930578197</v>
+        <v>0.01984635694497516</v>
       </c>
       <c r="F5">
-        <v>4.567237214676211</v>
+        <v>3.073577100753127</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>2.96325963005242</v>
+        <v>2.039022871175987</v>
       </c>
       <c r="J5">
-        <v>0.1737082610827834</v>
+        <v>0.08485469956678315</v>
       </c>
       <c r="K5">
-        <v>1.056900152086484</v>
+        <v>0.816091963931143</v>
       </c>
       <c r="L5">
-        <v>0.3513574990490724</v>
+        <v>0.1676014012313374</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.202997182580049</v>
+        <v>0.7561055701089003</v>
       </c>
       <c r="C6">
-        <v>0.06245003754649758</v>
+        <v>0.1147499900297646</v>
       </c>
       <c r="D6">
-        <v>0.004277372990814765</v>
+        <v>0.003607346554111768</v>
       </c>
       <c r="E6">
-        <v>0.06562834507854376</v>
+        <v>0.01982945585034201</v>
       </c>
       <c r="F6">
-        <v>4.565733381866977</v>
+        <v>3.066499157997782</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>2.962330757970662</v>
+        <v>2.034996627693886</v>
       </c>
       <c r="J6">
-        <v>0.1737082563564059</v>
+        <v>0.08479084779989066</v>
       </c>
       <c r="K6">
-        <v>1.056050769841846</v>
+        <v>0.810983849778097</v>
       </c>
       <c r="L6">
-        <v>0.3513124926112354</v>
+        <v>0.1669669200936497</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.207202041390588</v>
+        <v>0.7874449221830844</v>
       </c>
       <c r="C7">
-        <v>0.06393852312737636</v>
+        <v>0.1205497202667232</v>
       </c>
       <c r="D7">
-        <v>0.004233872854239706</v>
+        <v>0.003634547128104515</v>
       </c>
       <c r="E7">
-        <v>0.06554188825680729</v>
+        <v>0.01994873497087557</v>
       </c>
       <c r="F7">
-        <v>4.576283847233796</v>
+        <v>3.115904171270088</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>2.968839543011413</v>
+        <v>2.063106227181578</v>
       </c>
       <c r="J7">
-        <v>0.1737112624479273</v>
+        <v>0.08523940849265443</v>
       </c>
       <c r="K7">
-        <v>1.062015252128248</v>
+        <v>0.8465559011314099</v>
       </c>
       <c r="L7">
-        <v>0.3516406043675744</v>
+        <v>0.1713939022734721</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.227619916911664</v>
+        <v>0.9286685726849555</v>
       </c>
       <c r="C8">
-        <v>0.07060472970725584</v>
+        <v>0.1465675123226049</v>
       </c>
       <c r="D8">
-        <v>0.004057136277395124</v>
+        <v>0.003738638985173459</v>
       </c>
       <c r="E8">
-        <v>0.06520664220990113</v>
+        <v>0.02052490685803043</v>
       </c>
       <c r="F8">
-        <v>4.625619690632021</v>
+        <v>3.34118240840921</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>2.999082410949214</v>
+        <v>2.191432409557038</v>
       </c>
       <c r="J8">
-        <v>0.1737980450870289</v>
+        <v>0.0873565735837829</v>
       </c>
       <c r="K8">
-        <v>1.090038064358765</v>
+        <v>1.006649993322441</v>
       </c>
       <c r="L8">
-        <v>0.3534770064474202</v>
+        <v>0.19153163947189</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.274341815827171</v>
+        <v>1.21838030311892</v>
       </c>
       <c r="C9">
-        <v>0.08403464828941765</v>
+        <v>0.1995887551274365</v>
       </c>
       <c r="D9">
-        <v>0.003764836723097353</v>
+        <v>0.003882628684528378</v>
       </c>
       <c r="E9">
-        <v>0.06471458456161727</v>
+        <v>0.02184597025540214</v>
       </c>
       <c r="F9">
-        <v>4.732381880448486</v>
+        <v>3.81354766675102</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>3.063876326221433</v>
+        <v>2.461102286515654</v>
       </c>
       <c r="J9">
-        <v>0.1742320158728248</v>
+        <v>0.09205748062451136</v>
       </c>
       <c r="K9">
-        <v>1.151110071799508</v>
+        <v>1.334440401639881</v>
       </c>
       <c r="L9">
-        <v>0.3584712324411328</v>
+        <v>0.2335411487835586</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.312739641244917</v>
+        <v>1.441395838034339</v>
       </c>
       <c r="C10">
-        <v>0.09412641534504473</v>
+        <v>0.2402662207639423</v>
       </c>
       <c r="D10">
-        <v>0.003582800054517943</v>
+        <v>0.003949150919890787</v>
       </c>
       <c r="E10">
-        <v>0.06445307617095075</v>
+        <v>0.02294601051088208</v>
       </c>
       <c r="F10">
-        <v>4.816965553773628</v>
+        <v>4.183971059764758</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>3.114854153546688</v>
+        <v>2.672976339249175</v>
       </c>
       <c r="J10">
-        <v>0.1747114558830383</v>
+        <v>0.09590279206399188</v>
       </c>
       <c r="K10">
-        <v>1.199719168271145</v>
+        <v>1.586492856426162</v>
       </c>
       <c r="L10">
-        <v>0.3629880283305056</v>
+        <v>0.2663163114442426</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.331091868551681</v>
+        <v>1.545650974974251</v>
       </c>
       <c r="C11">
-        <v>0.09876778988007118</v>
+        <v>0.2592716100281791</v>
       </c>
       <c r="D11">
-        <v>0.003507012920325625</v>
+        <v>0.003970331784679537</v>
       </c>
       <c r="E11">
-        <v>0.06435565919585784</v>
+        <v>0.0234777633589669</v>
       </c>
       <c r="F11">
-        <v>4.856788753741057</v>
+        <v>4.358734276341664</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>3.138784384221495</v>
+        <v>2.773032733443003</v>
       </c>
       <c r="J11">
-        <v>0.1749644055662323</v>
+        <v>0.09775119651896347</v>
       </c>
       <c r="K11">
-        <v>1.222647243526183</v>
+        <v>1.7042898224135</v>
       </c>
       <c r="L11">
-        <v>0.3652265989876042</v>
+        <v>0.2817346955495168</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.338168507203477</v>
+        <v>1.585587909619989</v>
       </c>
       <c r="C12">
-        <v>0.1005327346339016</v>
+        <v>0.266552283701742</v>
       </c>
       <c r="D12">
-        <v>0.003479317904596879</v>
+        <v>0.003977001634799748</v>
       </c>
       <c r="E12">
-        <v>0.06432185417751235</v>
+        <v>0.02368392661076335</v>
       </c>
       <c r="F12">
-        <v>4.872062799142839</v>
+        <v>4.425920689368411</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>3.147952963583094</v>
+        <v>2.811513135190467</v>
       </c>
       <c r="J12">
-        <v>0.1750651971897668</v>
+        <v>0.09846669614100989</v>
       </c>
       <c r="K12">
-        <v>1.231446856668356</v>
+        <v>1.7494121106009</v>
       </c>
       <c r="L12">
-        <v>0.3661006867057637</v>
+        <v>0.2876550369517048</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.336638778933178</v>
+        <v>1.576965486294995</v>
       </c>
       <c r="C13">
-        <v>0.1001522936565777</v>
+        <v>0.2649803355977269</v>
       </c>
       <c r="D13">
-        <v>0.003485237965063614</v>
+        <v>0.003975625954140583</v>
       </c>
       <c r="E13">
-        <v>0.06432899771318823</v>
+        <v>0.02363930719233487</v>
       </c>
       <c r="F13">
-        <v>4.868764632249736</v>
+        <v>4.411404253831051</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>3.145973594973043</v>
+        <v>2.803198326220155</v>
       </c>
       <c r="J13">
-        <v>0.1750432674079221</v>
+        <v>0.09831188699419613</v>
       </c>
       <c r="K13">
-        <v>1.229546488205045</v>
+        <v>1.739670214878714</v>
       </c>
       <c r="L13">
-        <v>0.3659112633563524</v>
+        <v>0.2863762043322993</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.331671522712639</v>
+        <v>1.548927103231733</v>
       </c>
       <c r="C14">
-        <v>0.0989128450200667</v>
+        <v>0.259868845437353</v>
       </c>
       <c r="D14">
-        <v>0.0035047143486171</v>
+        <v>0.003970907846833516</v>
       </c>
       <c r="E14">
-        <v>0.06435281629134693</v>
+        <v>0.02349462654772871</v>
       </c>
       <c r="F14">
-        <v>4.85804147125387</v>
+        <v>4.364240896531271</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>3.139536548283843</v>
+        <v>2.77618630691417</v>
       </c>
       <c r="J14">
-        <v>0.1749725974802701</v>
+        <v>0.09780974161965972</v>
       </c>
       <c r="K14">
-        <v>1.223368843281719</v>
+        <v>1.707991345080842</v>
       </c>
       <c r="L14">
-        <v>0.3652979820990652</v>
+        <v>0.2822200752668067</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.328645474703109</v>
+        <v>1.531814116273011</v>
       </c>
       <c r="C15">
-        <v>0.09815460753551974</v>
+        <v>0.2567491853924082</v>
       </c>
       <c r="D15">
-        <v>0.003516774763741015</v>
+        <v>0.003967840618633645</v>
       </c>
       <c r="E15">
-        <v>0.06436780717882584</v>
+        <v>0.02340663979153312</v>
       </c>
       <c r="F15">
-        <v>4.851498483060141</v>
+        <v>4.335486556909814</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>3.135607577983635</v>
+        <v>2.759719636410011</v>
       </c>
       <c r="J15">
-        <v>0.1749299617313973</v>
+        <v>0.09750422854311225</v>
       </c>
       <c r="K15">
-        <v>1.21960012597205</v>
+        <v>1.688656224564795</v>
       </c>
       <c r="L15">
-        <v>0.3649257648963982</v>
+        <v>0.2796852398627436</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.311558068985732</v>
+        <v>1.434643481544612</v>
       </c>
       <c r="C16">
-        <v>0.09382411551999326</v>
+        <v>0.2390352270097083</v>
       </c>
       <c r="D16">
-        <v>0.003587893723773661</v>
+        <v>0.003947580104862958</v>
       </c>
       <c r="E16">
-        <v>0.06445987498169004</v>
+        <v>0.02291191425683436</v>
       </c>
       <c r="F16">
-        <v>4.814390122761097</v>
+        <v>4.172684722540055</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>3.11330517503913</v>
+        <v>2.666516580530356</v>
       </c>
       <c r="J16">
-        <v>0.1746956257544419</v>
+        <v>0.09578409714264779</v>
       </c>
       <c r="K16">
-        <v>1.198237173153245</v>
+        <v>1.57886299468899</v>
       </c>
       <c r="L16">
-        <v>0.3628454279469224</v>
+        <v>0.2653196347989422</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.301301993251485</v>
+        <v>1.375787729876095</v>
       </c>
       <c r="C17">
-        <v>0.09118051272575656</v>
+        <v>0.2283045417884608</v>
       </c>
       <c r="D17">
-        <v>0.003633317271008796</v>
+        <v>0.003932792896172543</v>
       </c>
       <c r="E17">
-        <v>0.06452186408597171</v>
+        <v>0.02261664258699447</v>
       </c>
       <c r="F17">
-        <v>4.79197025609588</v>
+        <v>4.074486648330719</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>3.099813149183973</v>
+        <v>2.610323288256652</v>
       </c>
       <c r="J17">
-        <v>0.1745607896129435</v>
+        <v>0.09475512654011098</v>
       </c>
       <c r="K17">
-        <v>1.18534055446483</v>
+        <v>1.512355362608673</v>
       </c>
       <c r="L17">
-        <v>0.3616162637167406</v>
+        <v>0.2566429431747679</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.295486268410741</v>
+        <v>1.342195825086151</v>
       </c>
       <c r="C18">
-        <v>0.08966473799732455</v>
+        <v>0.2221789211499896</v>
       </c>
       <c r="D18">
-        <v>0.003660105008146175</v>
+        <v>0.003923435658490959</v>
       </c>
       <c r="E18">
-        <v>0.06455954724298074</v>
+        <v>0.02244974068322314</v>
       </c>
       <c r="F18">
-        <v>4.779201580168262</v>
+        <v>4.01858746718554</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>3.092122543051715</v>
+        <v>2.578344066731802</v>
       </c>
       <c r="J18">
-        <v>0.1744865160507842</v>
+        <v>0.09417253812017989</v>
       </c>
       <c r="K18">
-        <v>1.177999525345001</v>
+        <v>1.474392994839405</v>
       </c>
       <c r="L18">
-        <v>0.3609265893473861</v>
+        <v>0.2516996678264434</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.293531476572639</v>
+        <v>1.330865330885445</v>
       </c>
       <c r="C19">
-        <v>0.08915233697466363</v>
+        <v>0.2201125217987538</v>
       </c>
       <c r="D19">
-        <v>0.003669288635847145</v>
+        <v>0.003920122508868751</v>
       </c>
       <c r="E19">
-        <v>0.06457265494765174</v>
+        <v>0.02239372541950146</v>
       </c>
       <c r="F19">
-        <v>4.774900065283759</v>
+        <v>3.999757772233806</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>3.089530589768017</v>
+        <v>2.567573319249504</v>
       </c>
       <c r="J19">
-        <v>0.1744619319426839</v>
+        <v>0.09397683481313734</v>
       </c>
       <c r="K19">
-        <v>1.17552716441287</v>
+        <v>1.461587736335019</v>
       </c>
       <c r="L19">
-        <v>0.3606960516987812</v>
+        <v>0.2500338413466068</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.302385150372317</v>
+        <v>1.3820257010604</v>
       </c>
       <c r="C20">
-        <v>0.09146143595664569</v>
+        <v>0.2294419600543023</v>
       </c>
       <c r="D20">
-        <v>0.003628413456659541</v>
+        <v>0.003934455530438807</v>
       </c>
       <c r="E20">
-        <v>0.06451505537849833</v>
+        <v>0.02264776942638669</v>
       </c>
       <c r="F20">
-        <v>4.794343780042908</v>
+        <v>4.084879045344849</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>3.101242187791655</v>
+        <v>2.616269362504283</v>
       </c>
       <c r="J20">
-        <v>0.1745748036652373</v>
+        <v>0.09486369611364864</v>
       </c>
       <c r="K20">
-        <v>1.186705476903285</v>
+        <v>1.519404647065528</v>
       </c>
       <c r="L20">
-        <v>0.3617453193548243</v>
+        <v>0.2575616342247002</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.333127079716604</v>
+        <v>1.55714976887262</v>
       </c>
       <c r="C21">
-        <v>0.09927670079184736</v>
+        <v>0.2613678415212348</v>
       </c>
       <c r="D21">
-        <v>0.003498966461842112</v>
+        <v>0.003972330687199044</v>
       </c>
       <c r="E21">
-        <v>0.06434573658655118</v>
+        <v>0.02353699000308218</v>
       </c>
       <c r="F21">
-        <v>4.861185859273007</v>
+        <v>4.378065663505851</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>3.141424366282365</v>
+        <v>2.784103812689821</v>
       </c>
       <c r="J21">
-        <v>0.1749932191649464</v>
+        <v>0.09795680095744785</v>
       </c>
       <c r="K21">
-        <v>1.225180185422062</v>
+        <v>1.71728167224353</v>
       </c>
       <c r="L21">
-        <v>0.365477401847258</v>
+        <v>0.2834385401572064</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.353959159478222</v>
+        <v>1.67430133295818</v>
       </c>
       <c r="C22">
-        <v>0.1044273496265191</v>
+        <v>0.2827277724981627</v>
       </c>
       <c r="D22">
-        <v>0.003420214366437246</v>
+        <v>0.003989190035836199</v>
       </c>
       <c r="E22">
-        <v>0.06425305069642029</v>
+        <v>0.02414628332121538</v>
       </c>
       <c r="F22">
-        <v>4.906001179382969</v>
+        <v>4.57561012554504</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>3.168307924928357</v>
+        <v>2.897273403490587</v>
       </c>
       <c r="J22">
-        <v>0.17529584840225</v>
+        <v>0.1000696511337225</v>
       </c>
       <c r="K22">
-        <v>1.251009040047677</v>
+        <v>1.849643134382831</v>
       </c>
       <c r="L22">
-        <v>0.3680703305260238</v>
+        <v>0.3008316418358561</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.342772996903079</v>
+        <v>1.611508928232212</v>
       </c>
       <c r="C23">
-        <v>0.1016743961668283</v>
+        <v>0.2712781155592268</v>
       </c>
       <c r="D23">
-        <v>0.003461712572167208</v>
+        <v>0.00398092888932311</v>
       </c>
       <c r="E23">
-        <v>0.06430087869505563</v>
+        <v>0.02381841263570195</v>
       </c>
       <c r="F23">
-        <v>4.881978870139619</v>
+        <v>4.469595735734885</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>3.153902638996385</v>
+        <v>2.836531716807713</v>
       </c>
       <c r="J23">
-        <v>0.1751316624355184</v>
+        <v>0.09893316539402974</v>
       </c>
       <c r="K23">
-        <v>1.237161168987313</v>
+        <v>1.778698428872445</v>
       </c>
       <c r="L23">
-        <v>0.3666723790548758</v>
+        <v>0.2915015306244726</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.301895203872704</v>
+        <v>1.379204755059476</v>
       </c>
       <c r="C24">
-        <v>0.09133441790075381</v>
+        <v>0.228927598341329</v>
       </c>
       <c r="D24">
-        <v>0.003630628374399869</v>
+        <v>0.00393370651582714</v>
       </c>
       <c r="E24">
-        <v>0.06451812722511363</v>
+        <v>0.02263368811540545</v>
       </c>
       <c r="F24">
-        <v>4.793270333592432</v>
+        <v>4.080178918228938</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>3.10059591343466</v>
+        <v>2.613580128324131</v>
       </c>
       <c r="J24">
-        <v>0.1745684578021987</v>
+        <v>0.0948145839333101</v>
       </c>
       <c r="K24">
-        <v>1.186088166809981</v>
+        <v>1.516216817629299</v>
       </c>
       <c r="L24">
-        <v>0.3616869203812882</v>
+        <v>0.2571461542539311</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.260987195016099</v>
+        <v>1.138405970807128</v>
       </c>
       <c r="C25">
-        <v>0.08036252016950129</v>
+        <v>0.1849818989242351</v>
       </c>
       <c r="D25">
-        <v>0.003838139503849369</v>
+        <v>0.00385038300015772</v>
       </c>
       <c r="E25">
-        <v>0.06483007966772902</v>
+        <v>0.02146685812896187</v>
       </c>
       <c r="F25">
-        <v>4.702423590695986</v>
+        <v>3.682022586440326</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>3.045757439977592</v>
+        <v>2.385949803438123</v>
       </c>
       <c r="J25">
-        <v>0.1740863970475672</v>
+        <v>0.09072140960647346</v>
       </c>
       <c r="K25">
-        <v>1.133932460600192</v>
+        <v>1.244010295307788</v>
       </c>
       <c r="L25">
-        <v>0.3569712075155991</v>
+        <v>0.221870096499444</v>
       </c>
       <c r="M25">
         <v>0</v>
